--- a/doc/thesis/pictures/resultate/loesung2/variante1/Solution2__angle.xlsx
+++ b/doc/thesis/pictures/resultate/loesung2/variante1/Solution2__angle.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas Schwammberger\Documents\GitHub\PFSSCompression\doc\thesis\pictures\resultate\loesung2\variante2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas Schwammberger\Documents\GitHub\PFSSCompression\doc\thesis\pictures\resultate\loesung2\variante1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18408" windowHeight="6924"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Solution2_four_ots_curve" sheetId="1" r:id="rId1"/>
@@ -750,11 +750,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="245344000"/>
-        <c:axId val="245340864"/>
+        <c:axId val="244891136"/>
+        <c:axId val="244897408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="245344000"/>
+        <c:axId val="244891136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -783,10 +783,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -796,7 +793,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245340864"/>
+        <c:crossAx val="244897408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -804,11 +801,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="245340864"/>
+        <c:axId val="244897408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -828,34 +825,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="245344000"/>
+        <c:crossAx val="244891136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2035,11 +2005,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="245344784"/>
-        <c:axId val="245347136"/>
+        <c:axId val="244895056"/>
+        <c:axId val="244892312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="245344784"/>
+        <c:axId val="244895056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2068,10 +2038,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2081,7 +2048,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245347136"/>
+        <c:crossAx val="244892312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2089,11 +2056,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="245347136"/>
+        <c:axId val="244892312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2113,34 +2080,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="245344784"/>
+        <c:crossAx val="244895056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5332,13 +5272,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5349,7 +5289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-501882304</v>
       </c>
@@ -5360,7 +5300,7 @@
         <v>-2056464</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-493487968</v>
       </c>
@@ -5371,7 +5311,7 @@
         <v>-2533894.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-465209696</v>
       </c>
@@ -5382,7 +5322,7 @@
         <v>-1034766.4375</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-433114752</v>
       </c>
@@ -5393,7 +5333,7 @@
         <v>1122186.875</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-390787712</v>
       </c>
@@ -5404,7 +5344,7 @@
         <v>2892364.25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-339179168</v>
       </c>
@@ -5415,7 +5355,7 @@
         <v>3524119.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-280111776</v>
       </c>
@@ -5426,7 +5366,7 @@
         <v>2937399.75</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-213929872</v>
       </c>
@@ -5437,7 +5377,7 @@
         <v>1437448.375</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-140893008</v>
       </c>
@@ -5448,7 +5388,7 @@
         <v>-510013.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-58640076</v>
       </c>
@@ -5459,7 +5399,7 @@
         <v>-2427672.75</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>39129628</v>
       </c>
@@ -5470,7 +5410,7 @@
         <v>-3764947.25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>185034864</v>
       </c>
@@ -5481,7 +5421,7 @@
         <v>-3334714.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>414355904</v>
       </c>
@@ -5492,7 +5432,7 @@
         <v>1011826.1875</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>471184608</v>
       </c>
@@ -5503,7 +5443,7 @@
         <v>1516578.875</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>510376928</v>
       </c>
@@ -5514,7 +5454,7 @@
         <v>1333961.25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>545205568</v>
       </c>
@@ -5525,7 +5465,7 @@
         <v>670920.875</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>573687104</v>
       </c>
@@ -5536,7 +5476,7 @@
         <v>-294330.875</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>578260352</v>
       </c>

--- a/doc/thesis/pictures/resultate/loesung2/variante1/Solution2__angle.xlsx
+++ b/doc/thesis/pictures/resultate/loesung2/variante1/Solution2__angle.xlsx
@@ -588,63 +588,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-CH"/>
-              <a:t>X Kanal</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -750,11 +694,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="244891136"/>
-        <c:axId val="244897408"/>
+        <c:axId val="272460952"/>
+        <c:axId val="272461736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="244891136"/>
+        <c:axId val="272460952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -793,7 +737,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244897408"/>
+        <c:crossAx val="272461736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -801,7 +745,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244897408"/>
+        <c:axId val="272461736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -825,7 +769,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244891136"/>
+        <c:crossAx val="272460952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -869,7 +813,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -888,64 +832,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-CH" baseline="0"/>
-              <a:t>X Kanal</a:t>
-            </a:r>
-            <a:endParaRPr lang="de-CH"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -2005,11 +1892,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="244895056"/>
-        <c:axId val="244892312"/>
+        <c:axId val="272462912"/>
+        <c:axId val="272465656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="244895056"/>
+        <c:axId val="272462912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2048,7 +1935,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244892312"/>
+        <c:crossAx val="272465656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2056,7 +1943,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244892312"/>
+        <c:axId val="272465656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2080,7 +1967,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244895056"/>
+        <c:crossAx val="272462912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2124,7 +2011,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
